--- a/Code/Project_Notebook.xlsx
+++ b/Code/Project_Notebook.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="1425" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="1425" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Scratchpad" sheetId="6" r:id="rId1"/>
@@ -25,16 +25,16 @@
     <definedName name="_A2">Scratchpad!$A$2</definedName>
     <definedName name="_A3">Scratchpad!$A$3</definedName>
     <definedName name="CleanNumber">Number!$B$5</definedName>
-    <definedName name="Contains">Text!$B$14</definedName>
+    <definedName name="Contains">Text!#REF!</definedName>
     <definedName name="data_root">File!#REF!</definedName>
-    <definedName name="date">Text!$B$7</definedName>
+    <definedName name="date">Text!#REF!</definedName>
     <definedName name="Date_Input">Date!$B$4</definedName>
     <definedName name="DatePlusDays">Date!$B$8</definedName>
     <definedName name="DatePlusWorkingDays">Date!$B$9</definedName>
     <definedName name="DateText">Date!$B$19</definedName>
     <definedName name="Days">Date!$B$7</definedName>
-    <definedName name="error_ccmail">Text!$B$5</definedName>
-    <definedName name="error_toMail">Text!$B$4</definedName>
+    <definedName name="error_ccmail">Text!#REF!</definedName>
+    <definedName name="error_toMail">Text!#REF!</definedName>
     <definedName name="FileExtension">File!#REF!</definedName>
     <definedName name="FileName">File!#REF!</definedName>
     <definedName name="FileNameNoExtension">File!#REF!</definedName>
@@ -57,10 +57,10 @@
     <definedName name="LastWeekFriday">Date!$C$13</definedName>
     <definedName name="LastWeekMonday">Date!$B$13</definedName>
     <definedName name="LastWeekSunday">Date!$D$13</definedName>
-    <definedName name="Length">Text!$B$7</definedName>
-    <definedName name="LowerCase">Text!$B$9</definedName>
-    <definedName name="month_end_Date">Text!$B$11</definedName>
-    <definedName name="month_start_date">Text!$B$10</definedName>
+    <definedName name="Length">Text!#REF!</definedName>
+    <definedName name="LowerCase">Text!#REF!</definedName>
+    <definedName name="month_end_Date">Text!#REF!</definedName>
+    <definedName name="month_start_date">Text!#REF!</definedName>
     <definedName name="my_systemNME">File!#REF!</definedName>
     <definedName name="Number_Input">Number!$B$4</definedName>
     <definedName name="NumberText_Input">Number!$B$11</definedName>
@@ -78,19 +78,19 @@
     <definedName name="ReformattedDate">Date!$B$31</definedName>
     <definedName name="ReformattedFileName">File!#REF!</definedName>
     <definedName name="ReformattedNumber">Number!$B$15</definedName>
-    <definedName name="Replace">Text!$B$12</definedName>
-    <definedName name="Result">Text!$B$13</definedName>
-    <definedName name="Search">Text!$B$11</definedName>
+    <definedName name="Replace">Text!#REF!</definedName>
+    <definedName name="Result">Text!#REF!</definedName>
+    <definedName name="Search">Text!#REF!</definedName>
     <definedName name="SINGLEX_FILE_PATH_FTP">File!$B$6</definedName>
     <definedName name="STOCK_FILE_DATA_FTP">File!$B$7</definedName>
     <definedName name="temp">File!#REF!</definedName>
-    <definedName name="Text_Input">Text!$B$4</definedName>
+    <definedName name="Text_Input">Text!#REF!</definedName>
     <definedName name="ThisMonthFirstWorkingDay">Date!$B$15</definedName>
     <definedName name="ThisMonthLastWorkingDay">Date!$C$15</definedName>
     <definedName name="Today">Date!$B$12</definedName>
-    <definedName name="Trimmed">Text!$B$6</definedName>
+    <definedName name="Trimmed">Text!#REF!</definedName>
     <definedName name="TwoDecimals">Number!$B$7</definedName>
-    <definedName name="UpperCase">Text!$B$8</definedName>
+    <definedName name="UpperCase">Text!#REF!</definedName>
     <definedName name="YYYYMMDD">Date!$B$10</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="94">
   <si>
     <t>Last month's dates (First and Last)</t>
   </si>
@@ -362,15 +362,9 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>error_tomail</t>
-  </si>
-  <si>
     <t>animesh1.singh@lge.com</t>
   </si>
   <si>
-    <t>error_ccMail</t>
-  </si>
-  <si>
     <t>LGEIL</t>
   </si>
   <si>
@@ -383,12 +377,6 @@
     <t>2025-03-27</t>
   </si>
   <si>
-    <t>month_start_date</t>
-  </si>
-  <si>
-    <t>month_end_Date</t>
-  </si>
-  <si>
     <t>Code</t>
   </si>
   <si>
@@ -414,6 +402,9 @@
   </si>
   <si>
     <t>HI-M Solutek</t>
+  </si>
+  <si>
+    <t>GL DATE</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1002,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1045,7 +1036,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1110,15 +1100,11 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="9" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="9" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1143,6 +1129,7 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="Bottom Border" xfId="16"/>
@@ -1925,7 +1912,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="22"/>
+      <c r="A1" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -1952,24 +1939,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" s="19" customFormat="1" ht="51" customHeight="1">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1"/>
@@ -2003,7 +1990,7 @@
       <c r="A8" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="36" t="str">
+      <c r="B8" s="35" t="str">
         <f ca="1">TEXT(Date_Input+Days, preferred_date_format)</f>
         <v>20260120</v>
       </c>
@@ -2012,7 +1999,7 @@
       <c r="A9" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="36" t="str">
+      <c r="B9" s="35" t="str">
         <f ca="1">TEXT(WORKDAY(Date_Input, Days),preferred_date_format)</f>
         <v>20260122</v>
       </c>
@@ -2021,7 +2008,7 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="37" t="str">
+      <c r="B10" s="36" t="str">
         <f ca="1">TEXT(Date_Input,"YYYYMMDD")</f>
         <v>20260113</v>
       </c>
@@ -2031,7 +2018,7 @@
       <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="36" t="str">
+      <c r="B12" s="35" t="str">
         <f ca="1">TEXT(TODAY(), preferred_date_format)</f>
         <v>20260113</v>
       </c>
@@ -2040,15 +2027,15 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="36" t="str">
+      <c r="B13" s="35" t="str">
         <f ca="1">TEXT(TODAY()-WEEKDAY(TODAY(),2)-6, preferred_date_format)</f>
         <v>20260105</v>
       </c>
-      <c r="C13" s="36" t="str">
+      <c r="C13" s="35" t="str">
         <f ca="1">TEXT(TODAY()-WEEKDAY(TODAY(),2)-6+4, preferred_date_format)</f>
         <v>20260109</v>
       </c>
-      <c r="D13" s="38" t="str">
+      <c r="D13" s="37" t="str">
         <f ca="1">TEXT(TODAY()-WEEKDAY(TODAY(),2), preferred_date_format)</f>
         <v>20260111</v>
       </c>
@@ -2061,11 +2048,11 @@
       <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="36" t="str">
+      <c r="B14" s="35" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())-1, 1), preferred_date_format)</f>
         <v>20251201</v>
       </c>
-      <c r="C14" s="36" t="str">
+      <c r="C14" s="35" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), 0), preferred_date_format)</f>
         <v>20251231</v>
       </c>
@@ -2074,23 +2061,23 @@
       <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="36" t="str">
+      <c r="B15" s="35" t="str">
         <f ca="1">TEXT(WORKDAY(DATE(YEAR(TODAY()),MONTH(TODAY()),1)-1,1), preferred_date_format)</f>
         <v>20260101</v>
       </c>
-      <c r="C15" s="36" t="str">
+      <c r="C15" s="35" t="str">
         <f ca="1">TEXT(WORKDAY(DATE(YEAR(TODAY()),MONTH(TODAY())+1,1),-1), preferred_date_format)</f>
         <v>20260130</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="61"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="12" t="s">
@@ -2104,11 +2091,11 @@
       <c r="A19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="13" t="s">
@@ -2227,7 +2214,7 @@
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:6" s="19" customFormat="1">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B30" s="6" t="str">
@@ -2264,10 +2251,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2279,89 +2266,37 @@
     <col min="6" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="19" customFormat="1" ht="18.75">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:7" s="19" customFormat="1" ht="18.75">
+      <c r="A1" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-    </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="63" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="21"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="21"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="19" t="str">
-        <f>TEXT(B7,"d""th"" mmm")</f>
-        <v>13th Jun</v>
-      </c>
-      <c r="B7" s="56">
-        <v>45821</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="21"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="21"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="F9" s="21"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" t="str">
-        <f ca="1">UPPER(TEXT(EOMONTH(TODAY(), -2) + 1, "dd-mmm-yyyy"))</f>
-        <v>01-DEC-2025</v>
-      </c>
-      <c r="M10" s="55" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" t="str">
-        <f ca="1">UPPER(TEXT(EOMONTH(TODAY(), -1), "dd-mmm-yyyy"))</f>
-        <v>31-DEC-2025</v>
+        <v>93</v>
+      </c>
+      <c r="B4" s="62">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="G10" s="53" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2370,11 +2305,8 @@
     <mergeCell ref="A2:F2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" location="a" display="http://newep.lge.com/support/profile/getProfile.do?targetUserId=@WUlMMTY4MzA= - a"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2396,32 +2328,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:5" s="19" customFormat="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <v>3.1415929999999999</v>
       </c>
     </row>
@@ -2454,10 +2386,10 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="61"/>
+      <c r="B9" s="58"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="12" t="s">
@@ -2522,7 +2454,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2535,42 +2467,42 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="32"/>
+    </row>
+    <row r="2" spans="1:4" s="34" customFormat="1">
+      <c r="A2" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
         <v>90</v>
-      </c>
-      <c r="D1" s="33"/>
-    </row>
-    <row r="2" spans="1:4" s="35" customFormat="1">
-      <c r="A2" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" t="s">
-        <v>94</v>
       </c>
       <c r="C2">
         <v>152</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="19" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2604,56 +2536,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-    </row>
-    <row r="3" spans="1:4" s="35" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+    </row>
+    <row r="3" spans="1:4" s="34" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
     </row>
     <row r="4" spans="1:4" ht="18.75">
       <c r="A4" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="53" t="s">
-        <v>82</v>
+      <c r="B4" s="51" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="54" t="s">
-        <v>83</v>
+      <c r="B5" s="52" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.75">
       <c r="A6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="41" t="s">
-        <v>84</v>
+      <c r="B6" s="40" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="39" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2661,7 +2593,7 @@
       <c r="A8" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="40" t="str">
+      <c r="B8" s="39" t="str">
         <f>B4</f>
         <v>LGEIL</v>
       </c>
@@ -2670,7 +2602,7 @@
       <c r="A9" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="40" t="str">
+      <c r="B9" s="39" t="str">
         <f>B5</f>
         <v>Animesh.singh</v>
       </c>
@@ -2679,7 +2611,7 @@
       <c r="A10" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="40" t="str">
+      <c r="B10" s="39" t="str">
         <f>IFERROR(IF(FIND(B4, B6)&gt;=0, ""), B4&amp;"_")&amp;B6&amp;IFERROR(IF(FIND("_Self", B6)&gt;=0, ""), "_Self")</f>
         <v>INDIA_LGEIL_allProducts_Reconciliation_of_Sales_Fact_SELF_Self</v>
       </c>
@@ -2688,7 +2620,7 @@
       <c r="A11" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="40" t="str">
+      <c r="B11" s="39" t="str">
         <f ca="1">TEXT(TODAY(),"yyyymmdd")</f>
         <v>20260113</v>
       </c>
@@ -2697,7 +2629,7 @@
       <c r="A12" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="44" t="str">
+      <c r="B12" s="43" t="str">
         <f>B7&amp;"\"&amp;B8&amp;"\"&amp;B9</f>
         <v>D:\RPA_Repository_SELFRPA\LGEIL\Animesh.singh</v>
       </c>
@@ -2706,7 +2638,7 @@
       <c r="A13" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="44" t="str">
+      <c r="B13" s="43" t="str">
         <f>B7&amp;"\"&amp;B8&amp;"\"&amp;B9&amp;"\"&amp;B10</f>
         <v>D:\RPA_Repository_SELFRPA\LGEIL\Animesh.singh\INDIA_LGEIL_allProducts_Reconciliation_of_Sales_Fact_SELF_Self</v>
       </c>
@@ -2715,25 +2647,25 @@
       <c r="A14" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="44" t="str">
+      <c r="B14" s="43" t="str">
         <f ca="1">B7&amp;"\"&amp;B8&amp;"\"&amp;B9&amp;"\"&amp;B10&amp;"\"&amp;B11</f>
         <v>D:\RPA_Repository_SELFRPA\LGEIL\Animesh.singh\INDIA_LGEIL_allProducts_Reconciliation_of_Sales_Fact_SELF_Self\20260113</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="44" t="str">
+      <c r="B15" s="43" t="str">
         <f ca="1">ProcessFolder&amp;"\"&amp;"News_"&amp;Today &amp;".xlsx"</f>
         <v>D:\RPA_Repository_SELFRPA\LGEIL\Animesh.singh\INDIA_LGEIL_allProducts_Reconciliation_of_Sales_Fact_SELF_Self\20260113\News_20260113.xlsx</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="45" t="str">
+      <c r="B16" s="44" t="str">
         <f ca="1">B7&amp;"\"&amp;B8&amp;"\"&amp;B9&amp;"\"&amp;B10&amp;"\"&amp;B11&amp;"\"&amp;"News_"&amp;TEXT(TODAY(),"yyyymmdd")&amp;".docx"</f>
         <v>D:\RPA_Repository_SELFRPA\LGEIL\Animesh.singh\INDIA_LGEIL_allProducts_Reconciliation_of_Sales_Fact_SELF_Self\20260113\News_20260113.docx</v>
       </c>
@@ -2743,35 +2675,35 @@
       <c r="B17" s="6"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="46" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="54" t="s">
-        <v>83</v>
+      <c r="B19" s="52" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="50" t="s">
-        <v>80</v>
+      <c r="B20" s="49" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="51" t="s">
-        <v>84</v>
+      <c r="B21" s="50" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2799,115 +2731,115 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="165.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="23"/>
+    <col min="1" max="1" width="165.5703125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="5.25" customHeight="1">
-      <c r="A1" s="29"/>
+      <c r="A1" s="28"/>
     </row>
     <row r="2" spans="1:5" ht="37.5">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="37.5">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="28"/>
-      <c r="D4" s="24"/>
+      <c r="A4" s="27"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="29" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="29" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="28"/>
+      <c r="A8" s="27"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="28"/>
+      <c r="A9" s="27"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="28"/>
+      <c r="A10" s="27"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="28"/>
+      <c r="A11" s="27"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="28"/>
+      <c r="A12" s="27"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="28"/>
+      <c r="A13" s="27"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="28"/>
+      <c r="A14" s="27"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="28"/>
+      <c r="A15" s="27"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="28"/>
+      <c r="A16" s="27"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="28"/>
+      <c r="A17" s="27"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="28"/>
+      <c r="A18" s="27"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="28"/>
+      <c r="A19" s="27"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="28"/>
+      <c r="A20" s="27"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="28"/>
+      <c r="A21" s="27"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="28"/>
+      <c r="A22" s="27"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="29" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="29" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="29" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="29" t="s">
         <v>48</v>
       </c>
     </row>

--- a/Code/Project_Notebook.xlsx
+++ b/Code/Project_Notebook.xlsx
@@ -17,8 +17,10 @@
     <sheet name="Text" sheetId="3" r:id="rId3"/>
     <sheet name="Number" sheetId="4" r:id="rId4"/>
     <sheet name="File" sheetId="5" r:id="rId5"/>
-    <sheet name="Self RPA" sheetId="7" r:id="rId6"/>
-    <sheet name="About the Project Notebook" sheetId="2" r:id="rId7"/>
+    <sheet name="RPT_Master" sheetId="8" r:id="rId6"/>
+    <sheet name="Export_Nature" sheetId="9" r:id="rId7"/>
+    <sheet name="Self RPA" sheetId="7" r:id="rId8"/>
+    <sheet name="About the Project Notebook" sheetId="2" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_A1">Scratchpad!$A$1</definedName>
@@ -111,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="321">
   <si>
     <t>Last month's dates (First and Last)</t>
   </si>
@@ -374,9 +376,6 @@
     <t>INDIA_LGEIL_allProducts_Reconciliation_of_Sales_Fact_SELF</t>
   </si>
   <si>
-    <t>2025-03-27</t>
-  </si>
-  <si>
     <t>Code</t>
   </si>
   <si>
@@ -405,6 +404,690 @@
   </si>
   <si>
     <t>GL DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP Code </t>
+  </si>
+  <si>
+    <t>AR Code</t>
+  </si>
+  <si>
+    <t>Name of Group Company</t>
+  </si>
+  <si>
+    <t>KR044335</t>
+  </si>
+  <si>
+    <t>KR000001082B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LG Electronics Inc. </t>
+  </si>
+  <si>
+    <t>KR029375</t>
+  </si>
+  <si>
+    <t>KR002049002B</t>
+  </si>
+  <si>
+    <t>LG CNS Co. Ltd</t>
+  </si>
+  <si>
+    <t>IN002422</t>
+  </si>
+  <si>
+    <t>IN043486001B</t>
+  </si>
+  <si>
+    <t>LG CNS India Private Limited</t>
+  </si>
+  <si>
+    <t>KR018811</t>
+  </si>
+  <si>
+    <t>KR131615004B</t>
+  </si>
+  <si>
+    <t>LG Display Co., Ltd.</t>
+  </si>
+  <si>
+    <t>(Import Case)</t>
+  </si>
+  <si>
+    <t>(Export Case)</t>
+  </si>
+  <si>
+    <t>CN000111</t>
+  </si>
+  <si>
+    <t>CN000180012B</t>
+  </si>
+  <si>
+    <t>LG Electronics (Huizhou) Inc</t>
+  </si>
+  <si>
+    <t>AP Code</t>
+  </si>
+  <si>
+    <t>JO000694030B</t>
+  </si>
+  <si>
+    <t>LG Electronics (Levant) Jordan</t>
+  </si>
+  <si>
+    <t>AE000016</t>
+  </si>
+  <si>
+    <t>AE001405030B</t>
+  </si>
+  <si>
+    <t>LG Electronics Africa Logistic FZE</t>
+  </si>
+  <si>
+    <t>CN034914</t>
+  </si>
+  <si>
+    <t>LG Electronics Air-Conditioning (Shandong) Co., Ltd.</t>
+  </si>
+  <si>
+    <t>US000786</t>
+  </si>
+  <si>
+    <t>US000002025B</t>
+  </si>
+  <si>
+    <t>LG Electronics Alabama, Inc.</t>
+  </si>
+  <si>
+    <t>KZ000001030B</t>
+  </si>
+  <si>
+    <t>LG Electronics Almaty Kazakhstan Limited Liability Partnership</t>
+  </si>
+  <si>
+    <t>AR001016</t>
+  </si>
+  <si>
+    <t>AR000001027B</t>
+  </si>
+  <si>
+    <t>LG Electronics Argentina S.A.</t>
+  </si>
+  <si>
+    <t>AU001009</t>
+  </si>
+  <si>
+    <t>AU000001022B</t>
+  </si>
+  <si>
+    <t>LG Electronics Australia Pty Ltd</t>
+  </si>
+  <si>
+    <t>CA001024</t>
+  </si>
+  <si>
+    <t>CA000002031B</t>
+  </si>
+  <si>
+    <t>LG Electronics Canada, Inc.</t>
+  </si>
+  <si>
+    <t>AE000484</t>
+  </si>
+  <si>
+    <t>AE001509019B</t>
+  </si>
+  <si>
+    <t>LG Electronics Dubai FZE</t>
+  </si>
+  <si>
+    <t>EG000003</t>
+  </si>
+  <si>
+    <t>EG000001025B</t>
+  </si>
+  <si>
+    <t>LG Electronics Egypt S.A.E.</t>
+  </si>
+  <si>
+    <t>NL001113</t>
+  </si>
+  <si>
+    <t>NL000001047B</t>
+  </si>
+  <si>
+    <t>LG Electronics European Shared Service Center B.V.</t>
+  </si>
+  <si>
+    <t>FR001044</t>
+  </si>
+  <si>
+    <t>FR000001041B</t>
+  </si>
+  <si>
+    <t>LG Electronics France S.A.S</t>
+  </si>
+  <si>
+    <t>AE000002</t>
+  </si>
+  <si>
+    <t>AE000001045B</t>
+  </si>
+  <si>
+    <t>LG Electronics Gulf FZE</t>
+  </si>
+  <si>
+    <t>GR000001</t>
+  </si>
+  <si>
+    <t>GR000263038B</t>
+  </si>
+  <si>
+    <t>LG Electronics Hellas Single Member S.A.</t>
+  </si>
+  <si>
+    <t>HK000238</t>
+  </si>
+  <si>
+    <t>HK000001025B</t>
+  </si>
+  <si>
+    <t>LG Electronics HK Limited</t>
+  </si>
+  <si>
+    <t>CL001013</t>
+  </si>
+  <si>
+    <t>CL000986028B</t>
+  </si>
+  <si>
+    <t>LG Electronics Inc. Chile Limitada</t>
+  </si>
+  <si>
+    <t>MY001054</t>
+  </si>
+  <si>
+    <t>MY000001022B</t>
+  </si>
+  <si>
+    <t>LG Electronics (M) Sdn. Bhd.</t>
+  </si>
+  <si>
+    <t>MX001021</t>
+  </si>
+  <si>
+    <t>MX000001031B</t>
+  </si>
+  <si>
+    <t>LG Electronics Mexico S.A. DEC.V.</t>
+  </si>
+  <si>
+    <t>AE000001</t>
+  </si>
+  <si>
+    <t>AE000002026B</t>
+  </si>
+  <si>
+    <t>LG Electronics Middle East Company FZCO.</t>
+  </si>
+  <si>
+    <t>PL001006</t>
+  </si>
+  <si>
+    <t>PL000003050B</t>
+  </si>
+  <si>
+    <t>LG Electronics Mlawa Sp.zo.o.</t>
+  </si>
+  <si>
+    <t>MA000001</t>
+  </si>
+  <si>
+    <t>MA000001035B</t>
+  </si>
+  <si>
+    <t>LG Electronics Morocco S.A.R.L</t>
+  </si>
+  <si>
+    <t>CN000694</t>
+  </si>
+  <si>
+    <t>LG Electronics Nanjing New Technology Co., Ltd</t>
+  </si>
+  <si>
+    <t>PA000001</t>
+  </si>
+  <si>
+    <t>PA000001036B</t>
+  </si>
+  <si>
+    <t>LG Electronics Panama S.A.</t>
+  </si>
+  <si>
+    <t>PE000001</t>
+  </si>
+  <si>
+    <t>PE000001026B</t>
+  </si>
+  <si>
+    <t>LG Electronics Peru S.A.</t>
+  </si>
+  <si>
+    <t>PH000014</t>
+  </si>
+  <si>
+    <t>PH000001023B</t>
+  </si>
+  <si>
+    <t>LG Electronics Philippines, Inc.</t>
+  </si>
+  <si>
+    <t>PL001005</t>
+  </si>
+  <si>
+    <t>PL000001041B</t>
+  </si>
+  <si>
+    <t>LG Electronics Polska Sp.z.o.o.</t>
+  </si>
+  <si>
+    <t>CN000022</t>
+  </si>
+  <si>
+    <t>CN0000100015S</t>
+  </si>
+  <si>
+    <t>LG Electronics (Qinhuangdao) Co., Ltd.</t>
+  </si>
+  <si>
+    <t>ZA000001033B</t>
+  </si>
+  <si>
+    <t>LG Electronics South Africa (Pty) Ltd.</t>
+  </si>
+  <si>
+    <t>SA001730</t>
+  </si>
+  <si>
+    <t>SA001171009B</t>
+  </si>
+  <si>
+    <t>LG Electronics Saudi Arabia LLC</t>
+  </si>
+  <si>
+    <t>SG010803</t>
+  </si>
+  <si>
+    <t>SG001062036B</t>
+  </si>
+  <si>
+    <t>LG Electronics Singapore Pte Ltd.</t>
+  </si>
+  <si>
+    <t>TW000415</t>
+  </si>
+  <si>
+    <t>TW001986022B</t>
+  </si>
+  <si>
+    <t>LG Electronics Taiwan Taipei Co., Ltd.</t>
+  </si>
+  <si>
+    <t>TH000026</t>
+  </si>
+  <si>
+    <t>TH000002046B</t>
+  </si>
+  <si>
+    <t>LG Electronics Thailand Co., Ltd.</t>
+  </si>
+  <si>
+    <t>CN000081</t>
+  </si>
+  <si>
+    <t>CN000116057B</t>
+  </si>
+  <si>
+    <t>LG Electronics (Tianjin) Appliances Co. Ltd</t>
+  </si>
+  <si>
+    <t>TR001079</t>
+  </si>
+  <si>
+    <t>TR000848034B</t>
+  </si>
+  <si>
+    <t>LG Electronics Ticaret A.S.</t>
+  </si>
+  <si>
+    <t>VN018311</t>
+  </si>
+  <si>
+    <t>VN007883013B</t>
+  </si>
+  <si>
+    <t>LG Electronics Vietnam Hai Phong Co., Ltd</t>
+  </si>
+  <si>
+    <t>PL001094</t>
+  </si>
+  <si>
+    <t>PL008420049B</t>
+  </si>
+  <si>
+    <t>LG Electronics Wroclaw Sp. z o.o</t>
+  </si>
+  <si>
+    <t>ID001561</t>
+  </si>
+  <si>
+    <t>ID004961002B</t>
+  </si>
+  <si>
+    <t>PT. LG Innotek Indonesia</t>
+  </si>
+  <si>
+    <t>CN006683</t>
+  </si>
+  <si>
+    <t>CN022395005B</t>
+  </si>
+  <si>
+    <t>LG Innotek Yantai Co., Ltd.</t>
+  </si>
+  <si>
+    <t>IN001273</t>
+  </si>
+  <si>
+    <t>IN016731001B</t>
+  </si>
+  <si>
+    <t>LG Soft India Private Limited</t>
+  </si>
+  <si>
+    <t>SA000004</t>
+  </si>
+  <si>
+    <t>LG Shaker Co. Ltd.</t>
+  </si>
+  <si>
+    <t>CN000041</t>
+  </si>
+  <si>
+    <t>CN000135049B</t>
+  </si>
+  <si>
+    <t>Nanjing LG Panda Appliances Co., Ltd.</t>
+  </si>
+  <si>
+    <t>ID000016</t>
+  </si>
+  <si>
+    <t>ID000002058B</t>
+  </si>
+  <si>
+    <t>PT LG Electronics Indonesia</t>
+  </si>
+  <si>
+    <t>ID013534010B</t>
+  </si>
+  <si>
+    <t>PT. LG Electronics Service Indonesia</t>
+  </si>
+  <si>
+    <t>KR039370</t>
+  </si>
+  <si>
+    <t>Robostar Co., Ltd.</t>
+  </si>
+  <si>
+    <t>CN000689</t>
+  </si>
+  <si>
+    <t>CN006640053B</t>
+  </si>
+  <si>
+    <t>Taizhou LG Electronics Refrigeration Co., Ltd</t>
+  </si>
+  <si>
+    <t>IN044125</t>
+  </si>
+  <si>
+    <t>IN056992002B</t>
+  </si>
+  <si>
+    <t>Hi-M. Solutek India Private Limited</t>
+  </si>
+  <si>
+    <t>DZ000629012B</t>
+  </si>
+  <si>
+    <t>LG Electronics Algeria SARL</t>
+  </si>
+  <si>
+    <t>BR001005</t>
+  </si>
+  <si>
+    <t>BR000002033B</t>
+  </si>
+  <si>
+    <t>LG Electronics do Brasil Ltda.</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Account Name</t>
+  </si>
+  <si>
+    <t>Nature</t>
+  </si>
+  <si>
+    <t>Finished Goods Sales_Export(General)</t>
+  </si>
+  <si>
+    <t>Sale_MFG</t>
+  </si>
+  <si>
+    <t>Merchandise Sales _Domestic(General)</t>
+  </si>
+  <si>
+    <t>Sale_MERC</t>
+  </si>
+  <si>
+    <t>Merchandise Sales _Export(General)</t>
+  </si>
+  <si>
+    <t>Raw Materials Sales_Export(OPS)</t>
+  </si>
+  <si>
+    <t>Sale_RM &amp; Parts</t>
+  </si>
+  <si>
+    <t>Parts Sales_Export(General)</t>
+  </si>
+  <si>
+    <t>Cost of Finished Goods Sold_Technology Royalty(Running)</t>
+  </si>
+  <si>
+    <t>Royalty</t>
+  </si>
+  <si>
+    <t>Cost of Finished Goods Sold_Inventory Waste(Raw Material)</t>
+  </si>
+  <si>
+    <t>Purchase adjustment</t>
+  </si>
+  <si>
+    <t>Cost of Merchandise Sold_Purchase(Others)</t>
+  </si>
+  <si>
+    <t>Reimbursement of Exp</t>
+  </si>
+  <si>
+    <t>Cost of Merchandise Sold_Patent Royalty</t>
+  </si>
+  <si>
+    <t>Cost of Other Sales_SVC(Extended Warranty)_OH</t>
+  </si>
+  <si>
+    <t>Service Charges</t>
+  </si>
+  <si>
+    <t>Selling Exp_Salaries(Others)</t>
+  </si>
+  <si>
+    <t>Other Expenses</t>
+  </si>
+  <si>
+    <t>Selling Exp_Communication(IT Network)</t>
+  </si>
+  <si>
+    <t>Selling Exp_Commission &amp; Charge_Domestic Sales</t>
+  </si>
+  <si>
+    <t>Selling Exp_Commission &amp; Charge_Sales Promoter</t>
+  </si>
+  <si>
+    <t>Selling Exp_Commission &amp; Charge_IT Service(Non Human)</t>
+  </si>
+  <si>
+    <t>Selling Exp_Commission &amp; Charge_Others(Period)</t>
+  </si>
+  <si>
+    <t>Selling Exp_Commission &amp; Charge(Brand Royalty)</t>
+  </si>
+  <si>
+    <t>Selling Exp_Advertising_Corporate(Content Development)</t>
+  </si>
+  <si>
+    <t>Selling Exp_Advertising_Corporate(Brand Event/Exhibition)</t>
+  </si>
+  <si>
+    <t>Selling Exp_Advertising_Strategy(Creative)</t>
+  </si>
+  <si>
+    <t>Selling Exp_Advertising_Product(Digital Campaign)</t>
+  </si>
+  <si>
+    <t>Selling Exp_Advertising_Product(Content Development)</t>
+  </si>
+  <si>
+    <t>Selling Exp_Advertising_Product(Digital Solution &amp; License)</t>
+  </si>
+  <si>
+    <t>Selling Exp_Advertising_Corporate_Digital Operation</t>
+  </si>
+  <si>
+    <t>Sell Exp_Advertising_Product_Digital Operation</t>
+  </si>
+  <si>
+    <t>Selling Exp_Advertising_Corporate Marketing Intelligence(Subscription)</t>
+  </si>
+  <si>
+    <t>Selling Exp_Promotion_Product(Product Event/Road Show)</t>
+  </si>
+  <si>
+    <t>Selling Exp_Promotion_Corporate(Promotional Material)</t>
+  </si>
+  <si>
+    <t>Selling Exp_Promotion_Corporate(Store Operation)</t>
+  </si>
+  <si>
+    <t>Admin Exp_Salaries(Others)</t>
+  </si>
+  <si>
+    <t>Admin Exp_Repair_Office Equipment(IT H/W)</t>
+  </si>
+  <si>
+    <t>Admin Exp_Repair_Office Equipment(Other than IT H/W)</t>
+  </si>
+  <si>
+    <t>Admin Exp_Repair(Software)</t>
+  </si>
+  <si>
+    <t>Admin Exp_Rent(IT H/W_Lease)</t>
+  </si>
+  <si>
+    <t>Admin Exp_Communication(Wire/Wireless)</t>
+  </si>
+  <si>
+    <t>Admin Exp_Communication(IT Network)</t>
+  </si>
+  <si>
+    <t>Admin Exp_Commission &amp; Charge_IT Labor(Others)</t>
+  </si>
+  <si>
+    <t>Admin Exp_Commission &amp; Charge_IT Labor (System Maintenance)</t>
+  </si>
+  <si>
+    <t>Admin Exp_Commission &amp; Charge_IT Service(Non-Human)</t>
+  </si>
+  <si>
+    <t>Admin Exp_Commission &amp; Charge_Others(Bank)</t>
+  </si>
+  <si>
+    <t>Admin Exp_Commission &amp; Charge_Others(Others)</t>
+  </si>
+  <si>
+    <t>SVC Exp_Salaries(Others)</t>
+  </si>
+  <si>
+    <t>SVC Exp_Repair(Others)</t>
+  </si>
+  <si>
+    <t>SVC Exp_Communication(Wire/Wireless)</t>
+  </si>
+  <si>
+    <t>SVC Exp_Commission &amp; Charge_General Service(Outsourcing_CIC)</t>
+  </si>
+  <si>
+    <t>SVC Exp_Overseas_Claims(Rework)</t>
+  </si>
+  <si>
+    <t>Service Warranty Charges</t>
+  </si>
+  <si>
+    <t>SVC Exp_Overseas_Claims(Extraordinary)</t>
+  </si>
+  <si>
+    <t>SVC Exp_Domestic_Repair(Labor)</t>
+  </si>
+  <si>
+    <t>Service Warranty cliam received</t>
+  </si>
+  <si>
+    <t>SVC Exp_Domestic_Repair(Parts)</t>
+  </si>
+  <si>
+    <t>SVC Exp_Domestic_Return(Scrap Loss)</t>
+  </si>
+  <si>
+    <t>Labor Cost_Salaries(Others)</t>
+  </si>
+  <si>
+    <t>Manuf Exp_Repair(Machinery)</t>
+  </si>
+  <si>
+    <t>Manuf Exp_Repair_Office Equipment(Other than IT H/W)</t>
+  </si>
+  <si>
+    <t>Manuf Exp_Repair(Software)</t>
+  </si>
+  <si>
+    <t>Manuf Exp_Consumable Supplies(Manuf)</t>
+  </si>
+  <si>
+    <t>Manuf Exp_Consumable Supplies(Others)</t>
+  </si>
+  <si>
+    <t>Manuf Exp_Commission &amp; Charge_General Service(Outsourcing_HR)</t>
+  </si>
+  <si>
+    <t>Manuf Exp_Commission &amp; Charge_IT Labor (System Maintenance)</t>
+  </si>
+  <si>
+    <t>Manuf Exp_Ordinary Development_Sample</t>
   </si>
 </sst>
 </file>
@@ -419,7 +1102,7 @@
     <numFmt numFmtId="165" formatCode="yyyy;@"/>
     <numFmt numFmtId="166" formatCode="dd\-mmm"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,8 +1251,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -630,8 +1320,20 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -934,6 +1636,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1002,7 +1719,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1105,6 +1822,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1129,7 +1857,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="Bottom Border" xfId="16"/>
@@ -1178,7 +1905,17 @@
     <cellStyle name="YellowCell 2" xfId="31"/>
     <cellStyle name="z A Column text" xfId="7"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1276,17 +2013,17 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="CustomTableStyle" pivot="0" count="2">
-      <tableStyleElement type="headerRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="firstRowStripe" dxfId="8"/>
     </tableStyle>
     <tableStyle name="ExcelTableStyle" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="totalRow" dxfId="5"/>
+      <tableStyleElement type="firstColumn" dxfId="4"/>
+      <tableStyleElement type="lastColumn" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" dxfId="2"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1528,7 +2265,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F02D60CF-8928-455B-9C78-A605CA86381D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F02D60CF-8928-455B-9C78-A605CA86381D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1572,7 +2309,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{962976CE-2C8F-455D-A37F-D5746FB47B40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{962976CE-2C8F-455D-A37F-D5746FB47B40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1939,22 +2676,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" s="19" customFormat="1" ht="51" customHeight="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="34"/>
       <c r="F2" s="34"/>
     </row>
@@ -2072,12 +2809,12 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="67"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="12" t="s">
@@ -2091,11 +2828,11 @@
       <c r="A19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="64"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="13" t="s">
@@ -2254,7 +2991,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2267,37 +3004,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="19" customFormat="1" ht="18.75">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="62">
-        <v>46023</v>
+        <v>92</v>
+      </c>
+      <c r="B4" s="54">
+        <v>45748</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="G10" s="53" t="s">
-        <v>83</v>
-      </c>
+      <c r="G10" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2328,18 +3063,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="68"/>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="60"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
     </row>
@@ -2386,10 +3121,10 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="58"/>
+      <c r="B9" s="67"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="12" t="s">
@@ -2467,42 +3202,48 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
         <v>84</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>85</v>
-      </c>
-      <c r="C1" t="s">
-        <v>86</v>
       </c>
       <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" s="34" customFormat="1">
       <c r="A2" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2">
-        <v>152</v>
+        <v>1542538688</v>
       </c>
       <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="C3">
+        <v>1542539954</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="C4">
+        <v>1542541180</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2519,6 +3260,1309 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9.140625" style="19"/>
+    <col min="10" max="10" width="13.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A4" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" s="58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A6" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="56"/>
+      <c r="B7" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="56"/>
+      <c r="B11" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" s="56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="B31" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="56"/>
+      <c r="B34" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="C34" s="56" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="B35" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" s="56" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="B36" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="C36" s="56" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="B37" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="C37" s="56" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="B38" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" s="56" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="B39" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="C39" s="56" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="B40" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40" s="56" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="56" t="s">
+        <v>211</v>
+      </c>
+      <c r="B41" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="C41" s="56" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="B42" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="C42" s="56" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="B43" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="C43" s="56" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="B44" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C44" s="56" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="B45" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="C45" s="56" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="B46" s="56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C46" s="56" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="B47" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="C47" s="56" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="B48" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="C48" s="56" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="56"/>
+      <c r="B49" s="56" t="s">
+        <v>234</v>
+      </c>
+      <c r="C49" s="56" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="B50" s="56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C50" s="56" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="B51" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="C51" s="56" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="56" t="s">
+        <v>241</v>
+      </c>
+      <c r="B52" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="C52" s="56" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="56"/>
+      <c r="B53" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="C53" s="56" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="B54" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="C54" s="56" t="s">
+        <v>248</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="63" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="19">
+        <v>41010301</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="19">
+        <v>41090101</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="19">
+        <v>41090301</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="19">
+        <v>41130309</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="19">
+        <v>41170301</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="19">
+        <v>45010508</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="19">
+        <v>45011901</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="19">
+        <v>45090208</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="19">
+        <v>45090901</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="19">
+        <v>45170533</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="19">
+        <v>51010177</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="19">
+        <v>51330103</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="19">
+        <v>51350501</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="19">
+        <v>51350506</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="19">
+        <v>51351105</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="19">
+        <v>51357721</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="19">
+        <v>51359101</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="19">
+        <v>51610112</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="19">
+        <v>51610115</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="19">
+        <v>51610207</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="19">
+        <v>51610311</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="19">
+        <v>51610312</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="19">
+        <v>51610316</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="19">
+        <v>51610342</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="19">
+        <v>51610344</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="19">
+        <v>51610345</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="19">
+        <v>51630601</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="19">
+        <v>51640509</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="19">
+        <v>51640703</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="19">
+        <v>52010177</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="19">
+        <v>52210111</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="19">
+        <v>52210115</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="19">
+        <v>52210117</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="19">
+        <v>52270117</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="19">
+        <v>52330101</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="19">
+        <v>52330103</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="19">
+        <v>52351101</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="19">
+        <v>52351103</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="19">
+        <v>52351105</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="19">
+        <v>52357705</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="19">
+        <v>52357777</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="19">
+        <v>54010177</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="19">
+        <v>54210177</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="19">
+        <v>54330101</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="19">
+        <v>54350914</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="19">
+        <v>54690405</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="19">
+        <v>54690409</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="19">
+        <v>54740101</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="19">
+        <v>54740103</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="19">
+        <v>54740201</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="19">
+        <v>72010177</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="19">
+        <v>73210107</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="19">
+        <v>73210115</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="19">
+        <v>73210117</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="19">
+        <v>73230109</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="19">
+        <v>73230177</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="19">
+        <v>73350913</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="19">
+        <v>73351103</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="19">
+        <v>73490301</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A60">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D21"/>
@@ -2536,18 +4580,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="68"/>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="60"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
     </row>
@@ -2722,7 +4766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E27"/>
